--- a/src/input.xlsx
+++ b/src/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>検索ワード</t>
     <rPh sb="0" eb="2">
@@ -23,16 +23,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴ワード</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像フォルダ</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
+    <t>裸</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,14 +413,8 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
